--- a/data/trans_bre/P16A13-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3918521203524012</v>
+        <v>0.2171003098372469</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7724015251916161</v>
+        <v>-0.8126868701217294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4809383458126897</v>
+        <v>-0.6051021573155796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9486631460819815</v>
+        <v>-0.7648526954358175</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06391779558956327</v>
+        <v>0.02740456099980445</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1329115663721437</v>
+        <v>-0.1504038666868863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1603862323124948</v>
+        <v>-0.1591646120291923</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.0911096432639804</v>
+        <v>-0.07666676285028869</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.294979414647784</v>
+        <v>4.482208648480224</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.338771772600308</v>
+        <v>3.347066145223598</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.720649558603247</v>
+        <v>2.509038396321337</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.353436575994411</v>
+        <v>5.345425492604504</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.864355335615892</v>
+        <v>1.986734031128168</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9821077384662616</v>
+        <v>0.997010477036784</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.289137352372719</v>
+        <v>1.245173158170518</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8121738058275294</v>
+        <v>0.8380961412627177</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.2452634517350258</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.816686732113816</v>
+        <v>0.8166867321138158</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.568393837979399</v>
+        <v>-1.575767978047977</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.2563087375357144</v>
+        <v>-0.4066560774272103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8384564821449648</v>
+        <v>-0.9231958149128845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.023532660567671</v>
+        <v>2.052169023588138</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4203383596201349</v>
+        <v>-0.421085337121391</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07595172830041724</v>
+        <v>-0.1151975060633308</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2549317000979209</v>
+        <v>-0.2744929344708512</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3240589588909424</v>
+        <v>0.337462527902903</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.292963322991752</v>
+        <v>1.247803030093739</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.129155728839478</v>
+        <v>3.185252360858732</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.131986160356562</v>
+        <v>2.350468196657165</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.575434203477733</v>
+        <v>5.640401050192589</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5973278958644599</v>
+        <v>0.5262954158356148</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.315117407434323</v>
+        <v>1.299571641404355</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.029788001565356</v>
+        <v>1.140490986606931</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.455997488833306</v>
+        <v>1.485523816711714</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.320799262750184</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8566897059624941</v>
+        <v>0.8566897059624947</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.290878690650167</v>
@@ -849,7 +849,7 @@
         <v>0.3637276453637291</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1380633256292706</v>
+        <v>0.1380633256292707</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6325434990487949</v>
+        <v>-0.8487312632054542</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.042386393419888</v>
+        <v>-0.9696901339277487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8241127466962656</v>
+        <v>-0.6977107443232494</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9934007535487217</v>
+        <v>-1.046644602243956</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2697559599483043</v>
+        <v>-0.3149512821018268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2183578354501164</v>
+        <v>-0.1973472750030308</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1828055260668732</v>
+        <v>-0.1623390711133638</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1340330259271561</v>
+        <v>-0.144135005250698</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.006425561751924</v>
+        <v>1.916500541120687</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.000172597811138</v>
+        <v>2.957698473379712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.359613220788425</v>
+        <v>3.616147751674486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.599260626989181</v>
+        <v>2.538093626243698</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.229154082627713</v>
+        <v>1.238907922120686</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.071727238304158</v>
+        <v>0.9746504581485465</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.307103706492583</v>
+        <v>1.32821551258569</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5028877221565538</v>
+        <v>0.4961712920320202</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.006437617407848</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.035235132095448</v>
+        <v>1.035235132095447</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.01253697427055239</v>
@@ -949,7 +949,7 @@
         <v>1.04486685131555</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1549535439820794</v>
+        <v>0.1549535439820792</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.821041454285602</v>
+        <v>-1.779564933821085</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.330370314283678</v>
+        <v>-2.002244751636947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.06613359261282754</v>
+        <v>-0.1214310076916214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.054407133431653</v>
+        <v>-1.029955420901032</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7190231264234928</v>
+        <v>-0.7015772880947997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3313322050411588</v>
+        <v>-0.2897875591035408</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1173989295867792</v>
+        <v>-0.1900851669819041</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1304178249284718</v>
+        <v>-0.1431358404199249</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.999368305640791</v>
+        <v>2.274925154697125</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.949146909394643</v>
+        <v>5.099622657873645</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.967536976630473</v>
+        <v>4.866754911743183</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.160956012231487</v>
+        <v>2.994415318079608</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.954897468546046</v>
+        <v>2.132018815740028</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.350421536202852</v>
+        <v>1.441288380237752</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.064202774554552</v>
+        <v>3.907334387234382</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5804130951391628</v>
+        <v>0.4934657916167806</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.109833463779834</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.07891227790977</v>
+        <v>2.078912277909773</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3451763718091158</v>
@@ -1049,7 +1049,7 @@
         <v>0.3811518824470163</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3328768879665112</v>
+        <v>0.3328768879665117</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0366241756848746</v>
+        <v>0.03001037326701413</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1975714393553414</v>
+        <v>0.2589369664326167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1892444203387173</v>
+        <v>0.2199134215489247</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.082474253266829</v>
+        <v>1.048909697314212</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.006008576960216104</v>
+        <v>0.008972437563058287</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03291444953200447</v>
+        <v>0.03852239927048125</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04231270080302928</v>
+        <v>0.06013457495492704</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1598116963876657</v>
+        <v>0.151369386756043</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.769368496457759</v>
+        <v>1.751082163645672</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.371299662867759</v>
+        <v>2.360967524178557</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.071395586484708</v>
+        <v>2.048843697811706</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.10717646690027</v>
+        <v>3.176874827374533</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7961743208817328</v>
+        <v>0.7704960789044463</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.669850522862652</v>
+        <v>0.6497592092329119</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8149514136370601</v>
+        <v>0.8152332825932309</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5460210415421362</v>
+        <v>0.5626040630003204</v>
       </c>
     </row>
     <row r="19">
